--- a/Data_Process/Heat_losses_analysis.xlsx
+++ b/Data_Process/Heat_losses_analysis.xlsx
@@ -1359,6 +1359,513 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Measured</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.36925196850393699"/>
+                  <c:y val="-2.3564814814814816E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.38461538461538464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48780487804878048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51020408163265307</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.532258064516129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F78-42F7-B14D-BE2242129A21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Calculated</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$3:$Y$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0000000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$3:$Z$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.09E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8486250000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10380500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14685625000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18764000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22615625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26240500000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29638625000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32810000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35754625000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38472499999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40963625000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43228000000000011</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45265625000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4707650000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.48660625000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50018000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.51148625000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.52052500000000013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52729625000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.53180000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4F78-42F7-B14D-BE2242129A21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="472393320"/>
+        <c:axId val="472393976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="472393320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472393976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="472393976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472393320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1439,6 +1946,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1956,6 +2503,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2530,6 +3593,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2801,15 +3894,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2817,7 +3910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2825,7 +3918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2835,8 +3928,15 @@
       <c r="C3">
         <v>0</v>
       </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f>0.0109+0.9744*Y3-0.4535*Y3^2</f>
+        <v>1.09E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -2846,8 +3946,20 @@
       <c r="C4">
         <v>800</v>
       </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="0">B4/(B4+C4)</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="Y4">
+        <f>Y3+0.05</f>
+        <v>0.05</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z23" si="1">0.0109+0.9744*Y4-0.4535*Y4^2</f>
+        <v>5.8486250000000004E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.75</v>
       </c>
@@ -2857,8 +3969,20 @@
       <c r="C5">
         <v>1050</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.48780487804878048</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" ref="Y5:Y23" si="2">Y4+0.05</f>
+        <v>0.1</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="1"/>
+        <v>0.10380500000000002</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.85</v>
       </c>
@@ -2868,8 +3992,20 @@
       <c r="C6">
         <v>1200</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.51020408163265307</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="1"/>
+        <v>0.14685625000000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2879,21 +4015,49 @@
       <c r="C7">
         <v>1450</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.532258064516129</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="1"/>
+        <v>0.18764000000000003</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
+      <c r="Y8">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="1"/>
+        <v>0.22615625</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
+      <c r="Y9">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="1"/>
+        <v>0.26240500000000005</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2903,8 +4067,16 @@
       <c r="C10">
         <v>0</v>
       </c>
+      <c r="Y10">
+        <f t="shared" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="1"/>
+        <v>0.29638625000000002</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -2916,44 +4088,166 @@
         <f>C4/$C$7</f>
         <v>0.55172413793103448</v>
       </c>
+      <c r="Y11">
+        <f t="shared" si="2"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="1"/>
+        <v>0.32810000000000006</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.75</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:B14" si="0">B5/$B$7</f>
+        <f t="shared" ref="B12:B14" si="3">B5/$B$7</f>
         <v>0.60606060606060608</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C14" si="1">C5/$C$7</f>
+        <f t="shared" ref="C12:C14" si="4">C5/$C$7</f>
         <v>0.72413793103448276</v>
       </c>
+      <c r="Y12">
+        <f t="shared" si="2"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="1"/>
+        <v>0.35754625000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.85</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.75757575757575757</v>
       </c>
       <c r="C13">
+        <f t="shared" si="4"/>
+        <v>0.82758620689655171</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="2"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="Z13">
         <f t="shared" si="1"/>
-        <v>0.82758620689655171</v>
+        <v>0.38472499999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="2"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="Z14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.40963625000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y15">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="1"/>
+        <v>0.43228000000000011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="1"/>
+        <v>0.45265625000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y17">
+        <f t="shared" si="2"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="1"/>
+        <v>0.4707650000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y18">
+        <f t="shared" si="2"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="1"/>
+        <v>0.48660625000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y19">
+        <f t="shared" si="2"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="1"/>
+        <v>0.50018000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y20">
+        <f>Y19+0.05</f>
+        <v>0.8500000000000002</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="1"/>
+        <v>0.51148625000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y21">
+        <f t="shared" si="2"/>
+        <v>0.90000000000000024</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="1"/>
+        <v>0.52052500000000013</v>
+      </c>
+    </row>
+    <row r="22" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y22">
+        <f t="shared" si="2"/>
+        <v>0.95000000000000029</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="1"/>
+        <v>0.52729625000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="25:26" x14ac:dyDescent="0.25">
+      <c r="Y23">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="1"/>
+        <v>0.53180000000000005</v>
       </c>
     </row>
   </sheetData>
